--- a/workers.xlsx
+++ b/workers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amulek/Documents/chemStores_scheduler/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9D8DFB-B3CD-084C-B61D-596AC725BC1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18AA989A-8503-DC4D-BEF5-B8C771110DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="500" windowWidth="21600" windowHeight="15700" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="8740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,36 +60,6 @@
     <t>Fri End</t>
   </si>
   <si>
-    <t>amulek</t>
-  </si>
-  <si>
-    <t>andrew</t>
-  </si>
-  <si>
-    <t>brandon</t>
-  </si>
-  <si>
-    <t>chloe</t>
-  </si>
-  <si>
-    <t>eleanor</t>
-  </si>
-  <si>
-    <t>jess</t>
-  </si>
-  <si>
-    <t>kacy</t>
-  </si>
-  <si>
-    <t>levi</t>
-  </si>
-  <si>
-    <t>makayla</t>
-  </si>
-  <si>
-    <t>thomas</t>
-  </si>
-  <si>
     <t>Min</t>
   </si>
   <si>
@@ -129,9 +99,6 @@
     <t>10,17</t>
   </si>
   <si>
-    <t>brooklyn</t>
-  </si>
-  <si>
     <t>12, 16</t>
   </si>
   <si>
@@ -141,9 +108,6 @@
     <t>11, 16</t>
   </si>
   <si>
-    <t>maria</t>
-  </si>
-  <si>
     <t>10,14</t>
   </si>
   <si>
@@ -159,9 +123,6 @@
     <t>9,13</t>
   </si>
   <si>
-    <t>meili</t>
-  </si>
-  <si>
     <t>8,10</t>
   </si>
   <si>
@@ -177,18 +138,12 @@
     <t>11,17</t>
   </si>
   <si>
-    <t>zach</t>
-  </si>
-  <si>
     <t>11,16</t>
   </si>
   <si>
     <t>11,13</t>
   </si>
   <si>
-    <t>troy</t>
-  </si>
-  <si>
     <t>8,15</t>
   </si>
   <si>
@@ -201,16 +156,66 @@
     <t>13,16</t>
   </si>
   <si>
-    <t>tyler</t>
+    <t>worker 1</t>
+  </si>
+  <si>
+    <t>worker 2</t>
+  </si>
+  <si>
+    <t>worker 3</t>
+  </si>
+  <si>
+    <t>worker 4</t>
+  </si>
+  <si>
+    <t>worker 5</t>
+  </si>
+  <si>
+    <t>worker 6</t>
+  </si>
+  <si>
+    <t>worker 7</t>
+  </si>
+  <si>
+    <t>worker 8</t>
+  </si>
+  <si>
+    <t>worker 9</t>
+  </si>
+  <si>
+    <t>worker 10</t>
+  </si>
+  <si>
+    <t>worker 11</t>
+  </si>
+  <si>
+    <t>worker 12</t>
+  </si>
+  <si>
+    <t>worker 13</t>
+  </si>
+  <si>
+    <t>worker 14</t>
+  </si>
+  <si>
+    <t>worker 15</t>
+  </si>
+  <si>
+    <t>worker 16</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -575,7 +580,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E24" sqref="E24"/>
+      <selection pane="topRight" activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -615,15 +620,15 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="B2">
         <v>13</v>
@@ -664,7 +669,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B3">
         <v>15</v>
@@ -705,13 +710,13 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D4">
         <v>8</v>
@@ -720,10 +725,10 @@
         <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="H4">
         <v>8</v>
@@ -732,10 +737,10 @@
         <v>17</v>
       </c>
       <c r="J4" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L4">
         <v>12</v>
@@ -746,37 +751,37 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I5" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="J5" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="K5" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="L5">
         <v>12</v>
@@ -787,7 +792,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -808,10 +813,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I6" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="J6">
         <v>11</v>
@@ -828,7 +833,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -837,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -869,7 +874,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="B8">
         <v>12</v>
@@ -910,37 +915,37 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H9" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="I9" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="J9" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="K9" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="L9">
         <v>10</v>
@@ -951,13 +956,13 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="D10">
         <v>14</v>
@@ -966,10 +971,10 @@
         <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="H10">
         <v>14</v>
@@ -992,7 +997,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="B11">
         <v>12</v>
@@ -1033,13 +1038,13 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D12">
         <v>10</v>
@@ -1048,10 +1053,10 @@
         <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="G12" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="H12">
         <v>11</v>
@@ -1060,10 +1065,10 @@
         <v>17</v>
       </c>
       <c r="J12" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="K12" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="L12">
         <v>15</v>
@@ -1074,7 +1079,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="B13">
         <v>14</v>
@@ -1083,10 +1088,10 @@
         <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F13">
         <v>14</v>
@@ -1095,16 +1100,16 @@
         <v>17</v>
       </c>
       <c r="H13" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="I13" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="J13" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K13" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="L13">
         <v>5</v>
@@ -1115,37 +1120,37 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" t="s">
         <v>32</v>
       </c>
-      <c r="D14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" t="s">
-        <v>45</v>
-      </c>
       <c r="G14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" t="s">
+        <v>34</v>
+      </c>
+      <c r="J14" t="s">
         <v>32</v>
       </c>
-      <c r="H14" t="s">
-        <v>46</v>
-      </c>
-      <c r="I14" t="s">
-        <v>47</v>
-      </c>
-      <c r="J14" t="s">
-        <v>45</v>
-      </c>
       <c r="K14" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="L14">
         <v>8</v>
@@ -1156,13 +1161,13 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D15">
         <v>16</v>
@@ -1171,16 +1176,16 @@
         <v>17</v>
       </c>
       <c r="F15" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="G15" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H15" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="I15" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1197,7 +1202,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B16">
         <v>8</v>
@@ -1206,22 +1211,22 @@
         <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="E16" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="F16" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="G16" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H16" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="I16" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="J16">
         <v>8</v>
@@ -1278,6 +1283,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
